--- a/data/formularios/PlotCheck_1GON.xlsx
+++ b/data/formularios/PlotCheck_1GON.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\drive1\Haiti_DR_Woodfuel_Mapping2016\FieldWork_SepOct2019\Plots\Gonaives\Plot 1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE28991-7D15-4D88-9F2B-594BAD4BA5FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,17 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$P$14</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="30">
   <si>
     <t>Lat_v1</t>
   </si>
@@ -116,36 +115,6 @@
     <t>Bois bleu</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Plot-ID: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1GON</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Date: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>24/09/2019</t>
-    </r>
-  </si>
-  <si>
     <t>DBH&gt;5 (cm)</t>
   </si>
   <si>
@@ -154,17 +123,36 @@
   <si>
     <t>Citroin</t>
   </si>
+  <si>
+    <t xml:space="preserve">Plot-ID: </t>
+  </si>
+  <si>
+    <t>1GON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date: </t>
+  </si>
+  <si>
+    <t>09/24//2019</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -259,42 +247,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -302,23 +290,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -334,72 +322,72 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,7 +445,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -509,7 +497,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -734,71 +722,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U608"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B598" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B125" sqref="B125"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4"/>
-    <col min="2" max="2" width="14.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="22"/>
+    <col min="1" max="1" width="11.5" style="4"/>
+    <col min="2" max="2" width="14.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="21" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="22"/>
     <col min="6" max="6" width="15" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" style="4" customWidth="1"/>
     <col min="12" max="12" width="13" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="4" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="4" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="4" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" style="4" customWidth="1"/>
     <col min="17" max="17" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="5"/>
-    <col min="21" max="21" width="14.140625" style="4" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="4"/>
+    <col min="18" max="18" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5" style="5"/>
+    <col min="21" max="21" width="14.1640625" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="11.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+    <row r="2" spans="1:21">
+      <c r="A2" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
       <c r="I2" s="17"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
@@ -819,7 +811,7 @@
       <c r="Q3" s="17"/>
       <c r="S3" s="6"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="B4" s="18" t="s">
         <v>14</v>
       </c>
@@ -830,7 +822,7 @@
       <c r="E4" s="15"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
@@ -864,7 +856,7 @@
       <c r="P5"/>
       <c r="Q5"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -882,7 +874,7 @@
       <c r="P6"/>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -912,7 +904,7 @@
       <c r="T7" s="13"/>
       <c r="U7" s="11"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -928,7 +920,7 @@
       <c r="R8"/>
       <c r="S8" s="6"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" s="32" t="s">
         <v>12</v>
       </c>
@@ -936,7 +928,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>18</v>
@@ -963,7 +955,7 @@
       <c r="R9"/>
       <c r="S9" s="6"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -986,7 +978,7 @@
       <c r="R10"/>
       <c r="S10" s="6"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1014,7 +1006,7 @@
       <c r="R11"/>
       <c r="S11" s="6"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -1042,7 +1034,7 @@
       <c r="R12"/>
       <c r="S12" s="6"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" s="4">
         <v>3</v>
       </c>
@@ -1070,7 +1062,7 @@
       <c r="R13"/>
       <c r="S13" s="6"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14" s="4">
         <v>4</v>
       </c>
@@ -1098,7 +1090,7 @@
       <c r="R14"/>
       <c r="S14" s="6"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15" s="4">
         <v>5</v>
       </c>
@@ -1126,7 +1118,7 @@
       <c r="R15"/>
       <c r="S15" s="6"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" s="4">
         <v>6</v>
       </c>
@@ -1154,7 +1146,7 @@
       <c r="R16"/>
       <c r="S16" s="6"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" s="4">
         <v>7</v>
       </c>
@@ -1182,7 +1174,7 @@
       <c r="R17"/>
       <c r="S17" s="6"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="4">
         <v>8</v>
       </c>
@@ -1210,7 +1202,7 @@
       <c r="R18"/>
       <c r="S18" s="6"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="4">
         <v>9</v>
       </c>
@@ -1238,7 +1230,7 @@
       <c r="R19"/>
       <c r="S19" s="6"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="4">
         <v>10</v>
       </c>
@@ -1266,7 +1258,7 @@
       <c r="R20"/>
       <c r="S20" s="6"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="4">
         <v>11</v>
       </c>
@@ -1294,7 +1286,7 @@
       <c r="R21"/>
       <c r="S21" s="6"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="4">
         <v>12</v>
       </c>
@@ -1322,7 +1314,7 @@
       <c r="R22"/>
       <c r="S22" s="6"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="4">
         <v>13</v>
       </c>
@@ -1353,7 +1345,7 @@
       <c r="R23"/>
       <c r="S23" s="6"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="4">
         <v>14</v>
       </c>
@@ -1381,7 +1373,7 @@
       <c r="R24"/>
       <c r="S24" s="6"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="4">
         <v>15</v>
       </c>
@@ -1412,7 +1404,7 @@
       <c r="R25"/>
       <c r="S25" s="6"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="4">
         <v>16</v>
       </c>
@@ -1440,7 +1432,7 @@
       <c r="R26"/>
       <c r="S26" s="6"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="4">
         <v>17</v>
       </c>
@@ -1468,7 +1460,7 @@
       <c r="R27"/>
       <c r="S27" s="6"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="4">
         <v>18</v>
       </c>
@@ -1496,7 +1488,7 @@
       <c r="R28"/>
       <c r="S28" s="6"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="4">
         <v>19</v>
       </c>
@@ -1524,7 +1516,7 @@
       <c r="R29"/>
       <c r="S29" s="6"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="4">
         <v>20</v>
       </c>
@@ -1552,7 +1544,7 @@
       <c r="R30"/>
       <c r="S30" s="6"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="4">
         <v>21</v>
       </c>
@@ -1580,7 +1572,7 @@
       <c r="R31"/>
       <c r="S31" s="6"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" s="4">
         <v>22</v>
       </c>
@@ -1608,7 +1600,7 @@
       <c r="R32"/>
       <c r="S32" s="6"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="4">
         <v>23</v>
       </c>
@@ -1636,7 +1628,7 @@
       <c r="R33"/>
       <c r="S33" s="6"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="4">
         <v>24</v>
       </c>
@@ -1664,7 +1656,7 @@
       <c r="R34"/>
       <c r="S34" s="6"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="4">
         <v>25</v>
       </c>
@@ -1692,7 +1684,7 @@
       <c r="R35"/>
       <c r="S35" s="6"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" s="4">
         <v>26</v>
       </c>
@@ -1720,7 +1712,7 @@
       <c r="R36"/>
       <c r="S36" s="6"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="4">
         <v>27</v>
       </c>
@@ -1748,7 +1740,7 @@
       <c r="R37"/>
       <c r="S37" s="6"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" s="4">
         <v>28</v>
       </c>
@@ -1776,7 +1768,7 @@
       <c r="R38"/>
       <c r="S38" s="6"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="4">
         <v>29</v>
       </c>
@@ -1804,7 +1796,7 @@
       <c r="R39"/>
       <c r="S39" s="6"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="4">
         <v>30</v>
       </c>
@@ -1826,12 +1818,12 @@
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
       <c r="N40"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
+      <c r="Q40" s="27"/>
       <c r="R40"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="4">
         <v>31</v>
       </c>
@@ -1853,13 +1845,13 @@
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
       <c r="N41"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
       <c r="R41"/>
       <c r="S41" s="6"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" s="4">
         <v>32</v>
       </c>
@@ -1881,13 +1873,13 @@
       <c r="L42" s="14"/>
       <c r="M42" s="14"/>
       <c r="N42"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="27"/>
       <c r="R42"/>
       <c r="S42" s="6"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43" s="4">
         <v>33</v>
       </c>
@@ -1909,13 +1901,13 @@
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
       <c r="N43"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
       <c r="R43"/>
       <c r="S43" s="6"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19">
       <c r="A44" s="4">
         <v>34</v>
       </c>
@@ -1943,7 +1935,7 @@
       <c r="R44"/>
       <c r="S44" s="6"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19">
       <c r="A45" s="4">
         <v>35</v>
       </c>
@@ -1971,7 +1963,7 @@
       <c r="R45"/>
       <c r="S45" s="6"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" s="4">
         <v>36</v>
       </c>
@@ -1999,7 +1991,7 @@
       <c r="R46"/>
       <c r="S46" s="6"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="A47" s="4">
         <v>37</v>
       </c>
@@ -2027,7 +2019,7 @@
       <c r="R47"/>
       <c r="S47" s="6"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" s="4">
         <v>38</v>
       </c>
@@ -2055,7 +2047,7 @@
       <c r="R48"/>
       <c r="S48" s="6"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19">
       <c r="A49" s="4">
         <v>39</v>
       </c>
@@ -2084,7 +2076,7 @@
       <c r="P49" s="14"/>
       <c r="S49" s="6"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19">
       <c r="A50" s="4">
         <v>40</v>
       </c>
@@ -2110,7 +2102,7 @@
       <c r="P50" s="14"/>
       <c r="S50" s="6"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19">
       <c r="A51" s="4">
         <v>41</v>
       </c>
@@ -2139,7 +2131,7 @@
       <c r="P51" s="14"/>
       <c r="S51" s="6"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19">
       <c r="A52" s="4">
         <v>42</v>
       </c>
@@ -2168,7 +2160,7 @@
       <c r="P52" s="14"/>
       <c r="S52" s="6"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19">
       <c r="A53" s="4">
         <v>43</v>
       </c>
@@ -2194,7 +2186,7 @@
       <c r="P53" s="14"/>
       <c r="S53" s="6"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19">
       <c r="A54" s="4">
         <v>44</v>
       </c>
@@ -2220,7 +2212,7 @@
       <c r="P54" s="14"/>
       <c r="S54" s="6"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19">
       <c r="A55" s="4">
         <v>45</v>
       </c>
@@ -2249,7 +2241,7 @@
       <c r="P55" s="14"/>
       <c r="S55" s="6"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19">
       <c r="A56" s="4">
         <v>46</v>
       </c>
@@ -2275,7 +2267,7 @@
       <c r="P56" s="14"/>
       <c r="S56" s="6"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19">
       <c r="A57" s="4">
         <v>47</v>
       </c>
@@ -2301,7 +2293,7 @@
       <c r="P57" s="14"/>
       <c r="S57" s="6"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19">
       <c r="A58" s="4">
         <v>48</v>
       </c>
@@ -2327,7 +2319,7 @@
       <c r="P58" s="14"/>
       <c r="S58" s="6"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19">
       <c r="A59" s="4">
         <v>49</v>
       </c>
@@ -2356,7 +2348,7 @@
       <c r="P59" s="14"/>
       <c r="S59" s="6"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19">
       <c r="A60" s="4">
         <v>50</v>
       </c>
@@ -2382,7 +2374,7 @@
       <c r="P60" s="14"/>
       <c r="S60" s="6"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19">
       <c r="A61" s="4">
         <v>51</v>
       </c>
@@ -2408,7 +2400,7 @@
       <c r="P61" s="14"/>
       <c r="S61" s="6"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19">
       <c r="A62" s="4">
         <v>52</v>
       </c>
@@ -2437,7 +2429,7 @@
       <c r="P62" s="14"/>
       <c r="S62" s="6"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19">
       <c r="A63" s="4">
         <v>53</v>
       </c>
@@ -2463,7 +2455,7 @@
       <c r="P63" s="14"/>
       <c r="S63" s="6"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19">
       <c r="A64" s="4">
         <v>54</v>
       </c>
@@ -2489,7 +2481,7 @@
       <c r="P64" s="14"/>
       <c r="S64" s="6"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19">
       <c r="A65" s="4">
         <v>55</v>
       </c>
@@ -2515,7 +2507,7 @@
       <c r="P65" s="14"/>
       <c r="S65" s="6"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19">
       <c r="A66" s="4">
         <v>56</v>
       </c>
@@ -2541,7 +2533,7 @@
       <c r="P66" s="14"/>
       <c r="S66" s="6"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19">
       <c r="A67" s="4">
         <v>57</v>
       </c>
@@ -2556,7 +2548,7 @@
       </c>
       <c r="S67" s="6"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19">
       <c r="A68" s="4">
         <v>58</v>
       </c>
@@ -2571,7 +2563,7 @@
       </c>
       <c r="S68" s="6"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19">
       <c r="A69" s="4">
         <v>59</v>
       </c>
@@ -2586,7 +2578,7 @@
       </c>
       <c r="S69" s="6"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19">
       <c r="A70" s="4">
         <v>60</v>
       </c>
@@ -2601,7 +2593,7 @@
       </c>
       <c r="S70" s="6"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19">
       <c r="A71" s="4">
         <v>61</v>
       </c>
@@ -2616,7 +2608,7 @@
       </c>
       <c r="S71" s="6"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19">
       <c r="A72" s="4">
         <v>62</v>
       </c>
@@ -2631,7 +2623,7 @@
       </c>
       <c r="S72" s="6"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19">
       <c r="A73" s="4">
         <v>63</v>
       </c>
@@ -2645,7 +2637,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19">
       <c r="A74" s="4">
         <v>64</v>
       </c>
@@ -2663,7 +2655,7 @@
       </c>
       <c r="S74" s="6"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19">
       <c r="A75" s="4">
         <v>65</v>
       </c>
@@ -2681,7 +2673,7 @@
       </c>
       <c r="S75" s="6"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19">
       <c r="A76" s="4">
         <v>66</v>
       </c>
@@ -2696,7 +2688,7 @@
       </c>
       <c r="S76" s="6"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19">
       <c r="A77" s="4">
         <v>67</v>
       </c>
@@ -2711,7 +2703,7 @@
       </c>
       <c r="S77" s="6"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19">
       <c r="A78" s="4">
         <v>68</v>
       </c>
@@ -2726,7 +2718,7 @@
       </c>
       <c r="S78" s="6"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19">
       <c r="A79" s="4">
         <v>69</v>
       </c>
@@ -2741,7 +2733,7 @@
       </c>
       <c r="S79" s="6"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19">
       <c r="A80" s="4">
         <v>70</v>
       </c>
@@ -2756,7 +2748,7 @@
       </c>
       <c r="S80" s="6"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19">
       <c r="A81" s="4">
         <v>71</v>
       </c>
@@ -2771,7 +2763,7 @@
       </c>
       <c r="S81" s="6"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19">
       <c r="A82" s="4">
         <v>72</v>
       </c>
@@ -2786,7 +2778,7 @@
       </c>
       <c r="S82" s="6"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19">
       <c r="A83" s="4">
         <v>73</v>
       </c>
@@ -2801,7 +2793,7 @@
       </c>
       <c r="S83" s="6"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19">
       <c r="A84" s="4">
         <v>74</v>
       </c>
@@ -2816,7 +2808,7 @@
       </c>
       <c r="S84" s="6"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19">
       <c r="A85" s="4">
         <v>75</v>
       </c>
@@ -2831,7 +2823,7 @@
       </c>
       <c r="S85" s="6"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19">
       <c r="A86" s="4">
         <v>76</v>
       </c>
@@ -2846,7 +2838,7 @@
       </c>
       <c r="S86" s="6"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19">
       <c r="A87" s="4">
         <v>77</v>
       </c>
@@ -2861,7 +2853,7 @@
       </c>
       <c r="S87" s="6"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19">
       <c r="A88" s="4">
         <v>78</v>
       </c>
@@ -2876,7 +2868,7 @@
       </c>
       <c r="S88" s="6"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19">
       <c r="A89" s="4">
         <v>79</v>
       </c>
@@ -2891,7 +2883,7 @@
       </c>
       <c r="S89" s="6"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19">
       <c r="A90" s="4">
         <v>80</v>
       </c>
@@ -2906,7 +2898,7 @@
       </c>
       <c r="S90" s="6"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19">
       <c r="A91" s="4">
         <v>81</v>
       </c>
@@ -2921,7 +2913,7 @@
       </c>
       <c r="S91" s="6"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19">
       <c r="A92" s="4">
         <v>82</v>
       </c>
@@ -2936,7 +2928,7 @@
       </c>
       <c r="S92" s="6"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19">
       <c r="A93" s="4">
         <v>83</v>
       </c>
@@ -2951,7 +2943,7 @@
       </c>
       <c r="S93" s="6"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19">
       <c r="A94" s="4">
         <v>84</v>
       </c>
@@ -2966,7 +2958,7 @@
       </c>
       <c r="S94" s="6"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19">
       <c r="A95" s="4">
         <v>85</v>
       </c>
@@ -2980,7 +2972,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19">
       <c r="A96" s="4">
         <v>86</v>
       </c>
@@ -2995,7 +2987,7 @@
       </c>
       <c r="S96" s="6"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19">
       <c r="A97" s="4">
         <v>87</v>
       </c>
@@ -3010,7 +3002,7 @@
       </c>
       <c r="S97" s="6"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19">
       <c r="A98" s="4">
         <v>88</v>
       </c>
@@ -3025,7 +3017,7 @@
       </c>
       <c r="S98" s="6"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19">
       <c r="A99" s="4">
         <v>89</v>
       </c>
@@ -3040,7 +3032,7 @@
       </c>
       <c r="S99" s="6"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19">
       <c r="A100" s="4">
         <v>90</v>
       </c>
@@ -3055,7 +3047,7 @@
       </c>
       <c r="S100" s="6"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19">
       <c r="A101" s="4">
         <v>91</v>
       </c>
@@ -3070,7 +3062,7 @@
       </c>
       <c r="S101" s="6"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19">
       <c r="A102" s="4">
         <v>92</v>
       </c>
@@ -3085,7 +3077,7 @@
       </c>
       <c r="S102" s="6"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19">
       <c r="A103" s="4">
         <v>93</v>
       </c>
@@ -3100,7 +3092,7 @@
       </c>
       <c r="S103" s="6"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19">
       <c r="A104" s="4">
         <v>94</v>
       </c>
@@ -3115,7 +3107,7 @@
       </c>
       <c r="S104" s="6"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19">
       <c r="A105" s="4">
         <v>95</v>
       </c>
@@ -3130,7 +3122,7 @@
       </c>
       <c r="S105" s="6"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19">
       <c r="A106" s="4">
         <v>96</v>
       </c>
@@ -3145,7 +3137,7 @@
       </c>
       <c r="S106" s="6"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19">
       <c r="A107" s="4">
         <v>97</v>
       </c>
@@ -3160,7 +3152,7 @@
       </c>
       <c r="S107" s="6"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19">
       <c r="A108" s="4">
         <v>98</v>
       </c>
@@ -3175,7 +3167,7 @@
       </c>
       <c r="S108" s="6"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19">
       <c r="A109" s="4">
         <v>99</v>
       </c>
@@ -3190,7 +3182,7 @@
       </c>
       <c r="S109" s="6"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19">
       <c r="A110" s="4">
         <v>100</v>
       </c>
@@ -3205,7 +3197,7 @@
       </c>
       <c r="S110" s="6"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19">
       <c r="A111" s="4">
         <v>101</v>
       </c>
@@ -3220,7 +3212,7 @@
       </c>
       <c r="S111" s="6"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19">
       <c r="A112" s="4">
         <v>102</v>
       </c>
@@ -3234,7 +3226,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
       <c r="A113" s="4">
         <v>103</v>
       </c>
@@ -3248,7 +3240,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" s="4">
         <v>104</v>
       </c>
@@ -3265,7 +3257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="4">
         <v>105</v>
       </c>
@@ -3279,7 +3271,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="4">
         <v>106</v>
       </c>
@@ -3293,7 +3285,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" s="4">
         <v>107</v>
       </c>
@@ -3307,7 +3299,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" s="4">
         <v>108</v>
       </c>
@@ -3324,7 +3316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
       <c r="A119" s="4">
         <v>109</v>
       </c>
@@ -3338,7 +3330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="4">
         <v>110</v>
       </c>
@@ -3352,7 +3344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" s="4">
         <v>111</v>
       </c>
@@ -3366,7 +3358,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="4">
         <v>112</v>
       </c>
@@ -3380,7 +3372,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" s="4">
         <v>113</v>
       </c>
@@ -3394,7 +3386,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="4">
         <v>114</v>
       </c>
@@ -3408,12 +3400,12 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="4">
         <v>115</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C125" s="21">
         <v>7.7</v>
@@ -3422,15 +3414,15 @@
         <v>4</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="4">
         <v>116</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C126" s="21">
         <v>6.5</v>
@@ -3439,15 +3431,15 @@
         <v>4</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="4">
         <v>117</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C127" s="21">
         <v>6.2</v>
@@ -3456,10 +3448,10 @@
         <v>4</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="4">
         <v>118</v>
       </c>
@@ -3473,7 +3465,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="4">
         <v>119</v>
       </c>
@@ -3487,12 +3479,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="4">
         <v>120</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C130" s="21">
         <v>6.5</v>
@@ -3501,10 +3493,10 @@
         <v>4</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="4">
         <v>121</v>
       </c>
@@ -3518,7 +3510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="4">
         <v>122</v>
       </c>
@@ -3532,7 +3524,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="4">
         <v>123</v>
       </c>
@@ -3546,7 +3538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="4">
         <v>124</v>
       </c>
@@ -3560,7 +3552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="4">
         <v>125</v>
       </c>
@@ -3574,7 +3566,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="4">
         <v>126</v>
       </c>
@@ -3588,7 +3580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="4">
         <v>127</v>
       </c>
@@ -3602,7 +3594,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="4">
         <v>128</v>
       </c>
@@ -3616,7 +3608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="4">
         <v>129</v>
       </c>
@@ -3630,7 +3622,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="4">
         <v>130</v>
       </c>
@@ -3644,7 +3636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="4">
         <v>131</v>
       </c>
@@ -3658,7 +3650,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" s="4">
         <v>132</v>
       </c>
@@ -3672,7 +3664,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="4">
         <v>133</v>
       </c>
@@ -3686,7 +3678,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="A144" s="4">
         <v>134</v>
       </c>
@@ -3700,7 +3692,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" s="4">
         <v>135</v>
       </c>
@@ -3714,7 +3706,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" s="4">
         <v>136</v>
       </c>
@@ -3728,7 +3720,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" s="4">
         <v>137</v>
       </c>
@@ -3742,7 +3734,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" s="4">
         <v>138</v>
       </c>
@@ -3756,7 +3748,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" s="4">
         <v>139</v>
       </c>
@@ -3773,7 +3765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" s="4">
         <v>140</v>
       </c>
@@ -3790,7 +3782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" s="4">
         <v>141</v>
       </c>
@@ -3804,7 +3796,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" s="4">
         <v>142</v>
       </c>
@@ -3818,7 +3810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" s="4">
         <v>143</v>
       </c>
@@ -3832,7 +3824,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" s="4">
         <v>144</v>
       </c>
@@ -3846,7 +3838,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" s="4">
         <v>145</v>
       </c>
@@ -3863,7 +3855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" s="4">
         <v>146</v>
       </c>
@@ -3877,7 +3869,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" s="4">
         <v>147</v>
       </c>
@@ -3891,7 +3883,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" s="4">
         <v>148</v>
       </c>
@@ -3908,7 +3900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" s="4">
         <v>149</v>
       </c>
@@ -3922,7 +3914,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" s="4">
         <v>150</v>
       </c>
@@ -3936,7 +3928,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" s="4">
         <v>151</v>
       </c>
@@ -3953,7 +3945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" s="4">
         <v>152</v>
       </c>
@@ -3967,7 +3959,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" s="4">
         <v>153</v>
       </c>
@@ -3984,7 +3976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" s="4">
         <v>154</v>
       </c>
@@ -3998,7 +3990,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" s="4">
         <v>155</v>
       </c>
@@ -4012,7 +4004,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" s="4">
         <v>156</v>
       </c>
@@ -4026,7 +4018,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" s="4">
         <v>157</v>
       </c>
@@ -4040,7 +4032,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" s="4">
         <v>158</v>
       </c>
@@ -4054,7 +4046,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" s="4">
         <v>159</v>
       </c>
@@ -4068,7 +4060,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" s="4">
         <v>160</v>
       </c>
@@ -4082,7 +4074,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" s="4">
         <v>161</v>
       </c>
@@ -4096,7 +4088,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" s="4">
         <v>162</v>
       </c>
@@ -4110,7 +4102,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" s="4">
         <v>163</v>
       </c>
@@ -4124,7 +4116,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" s="4">
         <v>164</v>
       </c>
@@ -4138,7 +4130,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" s="4">
         <v>165</v>
       </c>
@@ -4152,7 +4144,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" s="4">
         <v>166</v>
       </c>
@@ -4166,7 +4158,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" s="4">
         <v>167</v>
       </c>
@@ -4180,7 +4172,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" s="4">
         <v>168</v>
       </c>
@@ -4194,7 +4186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" s="4">
         <v>169</v>
       </c>
@@ -4208,7 +4200,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" s="4">
         <v>170</v>
       </c>
@@ -4225,7 +4217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" s="4">
         <v>171</v>
       </c>
@@ -4239,7 +4231,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" s="4">
         <v>172</v>
       </c>
@@ -4253,7 +4245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" s="4">
         <v>173</v>
       </c>
@@ -4267,7 +4259,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" s="4">
         <v>174</v>
       </c>
@@ -4281,7 +4273,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" s="4">
         <v>175</v>
       </c>
@@ -4295,7 +4287,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" s="4">
         <v>176</v>
       </c>
@@ -4309,7 +4301,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" s="4">
         <v>177</v>
       </c>
@@ -4323,7 +4315,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" s="4">
         <v>178</v>
       </c>
@@ -4337,7 +4329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" s="4">
         <v>179</v>
       </c>
@@ -4351,7 +4343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" s="4">
         <v>180</v>
       </c>
@@ -4365,7 +4357,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191" s="4">
         <v>181</v>
       </c>
@@ -4379,7 +4371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" s="4">
         <v>182</v>
       </c>
@@ -4393,7 +4385,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4">
       <c r="A193" s="4">
         <v>183</v>
       </c>
@@ -4407,7 +4399,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4">
       <c r="A194" s="4">
         <v>184</v>
       </c>
@@ -4421,7 +4413,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4">
       <c r="A195" s="4">
         <v>185</v>
       </c>
@@ -4435,7 +4427,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4">
       <c r="A196" s="4">
         <v>186</v>
       </c>
@@ -4449,7 +4441,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4">
       <c r="A197" s="4">
         <v>187</v>
       </c>
@@ -4463,7 +4455,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4">
       <c r="A198" s="4">
         <v>188</v>
       </c>
@@ -4477,7 +4469,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4">
       <c r="A199" s="4">
         <v>189</v>
       </c>
@@ -4491,7 +4483,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4">
       <c r="A200" s="4">
         <v>190</v>
       </c>
@@ -4505,7 +4497,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4">
       <c r="A201" s="4">
         <v>191</v>
       </c>
@@ -4519,7 +4511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4">
       <c r="A202" s="4">
         <v>192</v>
       </c>
@@ -4533,7 +4525,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4">
       <c r="A203" s="4">
         <v>193</v>
       </c>
@@ -4547,7 +4539,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4">
       <c r="A204" s="4">
         <v>194</v>
       </c>
@@ -4561,7 +4553,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4">
       <c r="A205" s="4">
         <v>195</v>
       </c>
@@ -4575,7 +4567,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4">
       <c r="A206" s="4">
         <v>196</v>
       </c>
@@ -4589,7 +4581,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4">
       <c r="A207" s="4">
         <v>197</v>
       </c>
@@ -4603,7 +4595,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4">
       <c r="A208" s="4">
         <v>198</v>
       </c>
@@ -4617,7 +4609,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8">
       <c r="A209" s="4">
         <v>199</v>
       </c>
@@ -4631,7 +4623,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8">
       <c r="A210" s="4">
         <v>200</v>
       </c>
@@ -4645,7 +4637,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8">
       <c r="A211" s="4">
         <v>201</v>
       </c>
@@ -4659,7 +4651,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8">
       <c r="A212" s="4">
         <v>202</v>
       </c>
@@ -4673,7 +4665,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8">
       <c r="A213" s="4">
         <v>203</v>
       </c>
@@ -4687,12 +4679,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8">
       <c r="A214" s="4">
         <v>204</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C214" s="21">
         <v>6.8</v>
@@ -4701,15 +4693,15 @@
         <v>4.5</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="4">
         <v>205</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C215" s="21">
         <v>5.5</v>
@@ -4718,15 +4710,15 @@
         <v>4.5</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="4">
         <v>206</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C216" s="21">
         <v>5.2</v>
@@ -4735,10 +4727,10 @@
         <v>4.5</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" s="4">
         <v>207</v>
       </c>
@@ -4752,7 +4744,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8">
       <c r="A218" s="4">
         <v>208</v>
       </c>
@@ -4766,7 +4758,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8">
       <c r="A219" s="4">
         <v>209</v>
       </c>
@@ -4780,7 +4772,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8">
       <c r="A220" s="4">
         <v>210</v>
       </c>
@@ -4794,7 +4786,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8">
       <c r="A221" s="4">
         <v>211</v>
       </c>
@@ -4808,7 +4800,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8">
       <c r="A222" s="4">
         <v>212</v>
       </c>
@@ -4822,7 +4814,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8">
       <c r="A223" s="4">
         <v>213</v>
       </c>
@@ -4836,7 +4828,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8">
       <c r="A224" s="4">
         <v>214</v>
       </c>
@@ -4850,7 +4842,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4">
       <c r="A225" s="4">
         <v>215</v>
       </c>
@@ -4864,7 +4856,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4">
       <c r="A226" s="4">
         <v>216</v>
       </c>
@@ -4878,7 +4870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4">
       <c r="A227" s="4">
         <v>217</v>
       </c>
@@ -4892,7 +4884,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4">
       <c r="A228" s="4">
         <v>218</v>
       </c>
@@ -4906,7 +4898,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4">
       <c r="A229" s="4">
         <v>219</v>
       </c>
@@ -4920,7 +4912,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4">
       <c r="A230" s="4">
         <v>220</v>
       </c>
@@ -4934,7 +4926,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4">
       <c r="A231" s="4">
         <v>221</v>
       </c>
@@ -4948,7 +4940,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4">
       <c r="A232" s="4">
         <v>222</v>
       </c>
@@ -4962,7 +4954,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4">
       <c r="A233" s="4">
         <v>223</v>
       </c>
@@ -4976,7 +4968,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4">
       <c r="A234" s="4">
         <v>224</v>
       </c>
@@ -4990,7 +4982,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4">
       <c r="A235" s="4">
         <v>225</v>
       </c>
@@ -5004,7 +4996,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4">
       <c r="A236" s="4">
         <v>226</v>
       </c>
@@ -5018,7 +5010,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4">
       <c r="A237" s="4">
         <v>227</v>
       </c>
@@ -5032,7 +5024,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4">
       <c r="A238" s="4">
         <v>228</v>
       </c>
@@ -5046,7 +5038,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4">
       <c r="A239" s="4">
         <v>229</v>
       </c>
@@ -5060,7 +5052,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4">
       <c r="A240" s="4">
         <v>230</v>
       </c>
@@ -5074,7 +5066,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241" s="4">
         <v>231</v>
       </c>
@@ -5088,7 +5080,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242" s="4">
         <v>232</v>
       </c>
@@ -5102,7 +5094,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" s="4">
         <v>233</v>
       </c>
@@ -5116,7 +5108,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" s="4">
         <v>234</v>
       </c>
@@ -5133,7 +5125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245" s="4">
         <v>235</v>
       </c>
@@ -5147,7 +5139,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246" s="4">
         <v>236</v>
       </c>
@@ -5161,7 +5153,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247" s="4">
         <v>237</v>
       </c>
@@ -5175,7 +5167,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248" s="4">
         <v>238</v>
       </c>
@@ -5192,7 +5184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249" s="4">
         <v>239</v>
       </c>
@@ -5206,7 +5198,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250" s="4">
         <v>240</v>
       </c>
@@ -5220,7 +5212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" s="4">
         <v>241</v>
       </c>
@@ -5237,7 +5229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252" s="4">
         <v>242</v>
       </c>
@@ -5251,7 +5243,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253" s="4">
         <v>243</v>
       </c>
@@ -5265,7 +5257,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254" s="4">
         <v>244</v>
       </c>
@@ -5279,7 +5271,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5">
       <c r="A255" s="4">
         <v>245</v>
       </c>
@@ -5293,7 +5285,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256" s="4">
         <v>246</v>
       </c>
@@ -5307,7 +5299,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4">
       <c r="A257" s="4">
         <v>247</v>
       </c>
@@ -5321,7 +5313,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4">
       <c r="A258" s="4">
         <v>248</v>
       </c>
@@ -5335,7 +5327,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4">
       <c r="A259" s="4">
         <v>249</v>
       </c>
@@ -5349,7 +5341,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4">
       <c r="A260" s="4">
         <v>250</v>
       </c>
@@ -5363,7 +5355,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4">
       <c r="A261" s="4">
         <v>251</v>
       </c>
@@ -5377,7 +5369,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4">
       <c r="A262" s="4">
         <v>252</v>
       </c>
@@ -5391,7 +5383,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4">
       <c r="A263" s="4">
         <v>253</v>
       </c>
@@ -5405,7 +5397,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4">
       <c r="A264" s="4">
         <v>254</v>
       </c>
@@ -5419,7 +5411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4">
       <c r="A265" s="4">
         <v>255</v>
       </c>
@@ -5433,7 +5425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4">
       <c r="A266" s="4">
         <v>256</v>
       </c>
@@ -5447,7 +5439,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4">
       <c r="A267" s="4">
         <v>257</v>
       </c>
@@ -5461,7 +5453,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4">
       <c r="A268" s="4">
         <v>258</v>
       </c>
@@ -5475,7 +5467,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4">
       <c r="A269" s="4">
         <v>259</v>
       </c>
@@ -5489,7 +5481,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4">
       <c r="A270" s="4">
         <v>260</v>
       </c>
@@ -5503,7 +5495,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4">
       <c r="A271" s="4">
         <v>261</v>
       </c>
@@ -5517,7 +5509,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4">
       <c r="A272" s="4">
         <v>262</v>
       </c>
@@ -5531,7 +5523,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4">
       <c r="A273" s="4">
         <v>263</v>
       </c>
@@ -5545,7 +5537,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4">
       <c r="A274" s="4">
         <v>264</v>
       </c>
@@ -5559,7 +5551,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4">
       <c r="A275" s="4">
         <v>265</v>
       </c>
@@ -5573,7 +5565,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4">
       <c r="A276" s="4">
         <v>266</v>
       </c>
@@ -5587,7 +5579,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4">
       <c r="A277" s="4">
         <v>267</v>
       </c>
@@ -5601,7 +5593,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4">
       <c r="A278" s="4">
         <v>268</v>
       </c>
@@ -5615,7 +5607,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4">
       <c r="A279" s="4">
         <v>269</v>
       </c>
@@ -5629,7 +5621,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4">
       <c r="A280" s="4">
         <v>270</v>
       </c>
@@ -5643,7 +5635,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4">
       <c r="A281" s="4">
         <v>271</v>
       </c>
@@ -5657,7 +5649,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4">
       <c r="A282" s="4">
         <v>272</v>
       </c>
@@ -5671,7 +5663,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4">
       <c r="A283" s="4">
         <v>273</v>
       </c>
@@ -5685,7 +5677,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4">
       <c r="A284" s="4">
         <v>274</v>
       </c>
@@ -5699,7 +5691,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4">
       <c r="A285" s="4">
         <v>275</v>
       </c>
@@ -5713,7 +5705,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4">
       <c r="A286" s="4">
         <v>276</v>
       </c>
@@ -5727,7 +5719,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4">
       <c r="A287" s="4">
         <v>277</v>
       </c>
@@ -5741,7 +5733,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4">
       <c r="A288" s="4">
         <v>278</v>
       </c>
@@ -5755,7 +5747,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5">
       <c r="A289" s="4">
         <v>279</v>
       </c>
@@ -5772,7 +5764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5">
       <c r="A290" s="4">
         <v>280</v>
       </c>
@@ -5786,7 +5778,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5">
       <c r="A291" s="4">
         <v>281</v>
       </c>
@@ -5800,7 +5792,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5">
       <c r="A292" s="4">
         <v>282</v>
       </c>
@@ -5814,7 +5806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5">
       <c r="A293" s="4">
         <v>283</v>
       </c>
@@ -5828,7 +5820,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5">
       <c r="A294" s="4">
         <v>284</v>
       </c>
@@ -5842,7 +5834,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5">
       <c r="A295" s="4">
         <v>285</v>
       </c>
@@ -5856,7 +5848,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5">
       <c r="A296" s="4">
         <v>286</v>
       </c>
@@ -5870,7 +5862,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5">
       <c r="A297" s="4">
         <v>287</v>
       </c>
@@ -5884,7 +5876,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5">
       <c r="A298" s="4">
         <v>288</v>
       </c>
@@ -5898,7 +5890,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5">
       <c r="A299" s="4">
         <v>289</v>
       </c>
@@ -5912,7 +5904,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5">
       <c r="A300" s="4">
         <v>290</v>
       </c>
@@ -5926,7 +5918,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5">
       <c r="A301" s="4">
         <v>291</v>
       </c>
@@ -5940,7 +5932,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5">
       <c r="A302" s="4">
         <v>292</v>
       </c>
@@ -5954,7 +5946,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5">
       <c r="A303" s="4">
         <v>293</v>
       </c>
@@ -5968,7 +5960,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5">
       <c r="A304" s="4">
         <v>294</v>
       </c>
@@ -5982,7 +5974,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5">
       <c r="A305" s="4">
         <v>295</v>
       </c>
@@ -5996,7 +5988,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5">
       <c r="A306" s="4">
         <v>296</v>
       </c>
@@ -6010,7 +6002,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5">
       <c r="A307" s="4">
         <v>297</v>
       </c>
@@ -6024,7 +6016,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5">
       <c r="A308" s="4">
         <v>298</v>
       </c>
@@ -6038,7 +6030,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5">
       <c r="A309" s="4">
         <v>299</v>
       </c>
@@ -6052,7 +6044,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5">
       <c r="A310" s="4">
         <v>300</v>
       </c>
@@ -6066,7 +6058,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5">
       <c r="A311" s="4">
         <v>301</v>
       </c>
@@ -6080,7 +6072,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5">
       <c r="A312" s="4">
         <v>302</v>
       </c>
@@ -6094,7 +6086,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5">
       <c r="A313" s="4">
         <v>303</v>
       </c>
@@ -6111,7 +6103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5">
       <c r="A314" s="4">
         <v>304</v>
       </c>
@@ -6128,7 +6120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5">
       <c r="A315" s="4">
         <v>305</v>
       </c>
@@ -6145,7 +6137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5">
       <c r="A316" s="4">
         <v>306</v>
       </c>
@@ -6159,7 +6151,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5">
       <c r="A317" s="4">
         <v>307</v>
       </c>
@@ -6173,7 +6165,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5">
       <c r="A318" s="4">
         <v>308</v>
       </c>
@@ -6187,7 +6179,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5">
       <c r="A319" s="4">
         <v>309</v>
       </c>
@@ -6201,7 +6193,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5">
       <c r="A320" s="4">
         <v>310</v>
       </c>
@@ -6215,7 +6207,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5">
       <c r="A321" s="4">
         <v>311</v>
       </c>
@@ -6229,7 +6221,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5">
       <c r="A322" s="4">
         <v>312</v>
       </c>
@@ -6243,7 +6235,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5">
       <c r="A323" s="4">
         <v>313</v>
       </c>
@@ -6257,7 +6249,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5">
       <c r="A324" s="4">
         <v>314</v>
       </c>
@@ -6271,7 +6263,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5">
       <c r="A325" s="4">
         <v>315</v>
       </c>
@@ -6285,7 +6277,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5">
       <c r="A326" s="4">
         <v>316</v>
       </c>
@@ -6299,7 +6291,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5">
       <c r="A327" s="4">
         <v>317</v>
       </c>
@@ -6313,7 +6305,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5">
       <c r="A328" s="4">
         <v>318</v>
       </c>
@@ -6327,7 +6319,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5">
       <c r="A329" s="4">
         <v>319</v>
       </c>
@@ -6341,7 +6333,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5">
       <c r="A330" s="4">
         <v>320</v>
       </c>
@@ -6358,7 +6350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5">
       <c r="A331" s="4">
         <v>321</v>
       </c>
@@ -6372,7 +6364,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5">
       <c r="A332" s="4">
         <v>322</v>
       </c>
@@ -6386,7 +6378,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5">
       <c r="A333" s="4">
         <v>323</v>
       </c>
@@ -6403,7 +6395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5">
       <c r="A334" s="4">
         <v>324</v>
       </c>
@@ -6417,7 +6409,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5">
       <c r="A335" s="4">
         <v>325</v>
       </c>
@@ -6431,7 +6423,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5">
       <c r="A336" s="4">
         <v>326</v>
       </c>
@@ -6445,7 +6437,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5">
       <c r="A337" s="4">
         <v>327</v>
       </c>
@@ -6459,7 +6451,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5">
       <c r="A338" s="4">
         <v>328</v>
       </c>
@@ -6473,7 +6465,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5">
       <c r="A339" s="4">
         <v>329</v>
       </c>
@@ -6487,7 +6479,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5">
       <c r="A340" s="4">
         <v>330</v>
       </c>
@@ -6501,7 +6493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5">
       <c r="A341" s="4">
         <v>331</v>
       </c>
@@ -6515,7 +6507,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5">
       <c r="A342" s="4">
         <v>332</v>
       </c>
@@ -6529,7 +6521,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5">
       <c r="A343" s="4">
         <v>333</v>
       </c>
@@ -6543,7 +6535,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5">
       <c r="A344" s="4">
         <v>334</v>
       </c>
@@ -6557,7 +6549,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5">
       <c r="A345" s="4">
         <v>335</v>
       </c>
@@ -6571,7 +6563,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5">
       <c r="A346" s="4">
         <v>336</v>
       </c>
@@ -6585,7 +6577,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5">
       <c r="A347" s="4">
         <v>337</v>
       </c>
@@ -6602,7 +6594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5">
       <c r="A348" s="4">
         <v>338</v>
       </c>
@@ -6616,7 +6608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5">
       <c r="A349" s="4">
         <v>339</v>
       </c>
@@ -6630,7 +6622,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5">
       <c r="A350" s="4">
         <v>340</v>
       </c>
@@ -6644,7 +6636,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5">
       <c r="A351" s="4">
         <v>341</v>
       </c>
@@ -6658,7 +6650,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5">
       <c r="A352" s="4">
         <v>342</v>
       </c>
@@ -6672,7 +6664,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5">
       <c r="A353" s="4">
         <v>343</v>
       </c>
@@ -6686,7 +6678,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5">
       <c r="A354" s="4">
         <v>344</v>
       </c>
@@ -6700,7 +6692,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5">
       <c r="A355" s="4">
         <v>345</v>
       </c>
@@ -6714,7 +6706,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5">
       <c r="A356" s="4">
         <v>346</v>
       </c>
@@ -6728,7 +6720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5">
       <c r="A357" s="4">
         <v>347</v>
       </c>
@@ -6742,7 +6734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5">
       <c r="A358" s="4">
         <v>348</v>
       </c>
@@ -6756,7 +6748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5">
       <c r="A359" s="4">
         <v>349</v>
       </c>
@@ -6770,7 +6762,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5">
       <c r="A360" s="4">
         <v>350</v>
       </c>
@@ -6787,7 +6779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5">
       <c r="A361" s="4">
         <v>351</v>
       </c>
@@ -6801,7 +6793,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5">
       <c r="A362" s="4">
         <v>352</v>
       </c>
@@ -6815,7 +6807,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5">
       <c r="A363" s="4">
         <v>353</v>
       </c>
@@ -6829,7 +6821,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5">
       <c r="A364" s="4">
         <v>354</v>
       </c>
@@ -6843,7 +6835,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5">
       <c r="A365" s="4">
         <v>355</v>
       </c>
@@ -6857,7 +6849,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5">
       <c r="A366" s="4">
         <v>356</v>
       </c>
@@ -6871,7 +6863,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5">
       <c r="A367" s="4">
         <v>357</v>
       </c>
@@ -6885,7 +6877,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5">
       <c r="A368" s="4">
         <v>358</v>
       </c>
@@ -6899,7 +6891,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5">
       <c r="A369" s="4">
         <v>359</v>
       </c>
@@ -6913,7 +6905,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5">
       <c r="A370" s="4">
         <v>360</v>
       </c>
@@ -6927,7 +6919,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5">
       <c r="A371" s="4">
         <v>361</v>
       </c>
@@ -6941,7 +6933,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5">
       <c r="A372" s="4">
         <v>362</v>
       </c>
@@ -6955,7 +6947,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5">
       <c r="A373" s="4">
         <v>363</v>
       </c>
@@ -6969,7 +6961,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5">
       <c r="A374" s="4">
         <v>364</v>
       </c>
@@ -6983,7 +6975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5">
       <c r="A375" s="4">
         <v>365</v>
       </c>
@@ -6997,7 +6989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5">
       <c r="A376" s="4">
         <v>366</v>
       </c>
@@ -7011,7 +7003,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5">
       <c r="A377" s="4">
         <v>367</v>
       </c>
@@ -7025,7 +7017,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5">
       <c r="A378" s="4">
         <v>368</v>
       </c>
@@ -7039,7 +7031,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5">
       <c r="A379" s="4">
         <v>369</v>
       </c>
@@ -7053,7 +7045,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5">
       <c r="A380" s="4">
         <v>370</v>
       </c>
@@ -7067,7 +7059,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5">
       <c r="A381" s="4">
         <v>371</v>
       </c>
@@ -7084,7 +7076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5">
       <c r="A382" s="4">
         <v>372</v>
       </c>
@@ -7098,7 +7090,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5">
       <c r="A383" s="4">
         <v>373</v>
       </c>
@@ -7112,7 +7104,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5">
       <c r="A384" s="4">
         <v>374</v>
       </c>
@@ -7126,7 +7118,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5">
       <c r="A385" s="4">
         <v>375</v>
       </c>
@@ -7140,7 +7132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5">
       <c r="A386" s="4">
         <v>376</v>
       </c>
@@ -7157,7 +7149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5">
       <c r="A387" s="4">
         <v>377</v>
       </c>
@@ -7171,7 +7163,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5">
       <c r="A388" s="4">
         <v>378</v>
       </c>
@@ -7185,7 +7177,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5">
       <c r="A389" s="4">
         <v>379</v>
       </c>
@@ -7199,7 +7191,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5">
       <c r="A390" s="4">
         <v>380</v>
       </c>
@@ -7213,7 +7205,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5">
       <c r="A391" s="4">
         <v>381</v>
       </c>
@@ -7227,7 +7219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5">
       <c r="A392" s="4">
         <v>382</v>
       </c>
@@ -7241,7 +7233,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5">
       <c r="A393" s="4">
         <v>383</v>
       </c>
@@ -7258,7 +7250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5">
       <c r="A394" s="4">
         <v>384</v>
       </c>
@@ -7272,7 +7264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5">
       <c r="A395" s="4">
         <v>385</v>
       </c>
@@ -7286,7 +7278,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5">
       <c r="A396" s="4">
         <v>386</v>
       </c>
@@ -7300,7 +7292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5">
       <c r="A397" s="4">
         <v>387</v>
       </c>
@@ -7314,7 +7306,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5">
       <c r="A398" s="4">
         <v>388</v>
       </c>
@@ -7328,7 +7320,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5">
       <c r="A399" s="4">
         <v>389</v>
       </c>
@@ -7342,7 +7334,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5">
       <c r="A400" s="4">
         <v>390</v>
       </c>
@@ -7356,7 +7348,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5">
       <c r="A401" s="4">
         <v>391</v>
       </c>
@@ -7370,7 +7362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5">
       <c r="A402" s="4">
         <v>392</v>
       </c>
@@ -7387,7 +7379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5">
       <c r="A403" s="4">
         <v>393</v>
       </c>
@@ -7401,7 +7393,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5">
       <c r="A404" s="4">
         <v>394</v>
       </c>
@@ -7415,7 +7407,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5">
       <c r="A405" s="4">
         <v>395</v>
       </c>
@@ -7429,7 +7421,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5">
       <c r="A406" s="4">
         <v>396</v>
       </c>
@@ -7443,7 +7435,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5">
       <c r="A407" s="4">
         <v>397</v>
       </c>
@@ -7457,7 +7449,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5">
       <c r="A408" s="4">
         <v>398</v>
       </c>
@@ -7471,7 +7463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5">
       <c r="A409" s="4">
         <v>399</v>
       </c>
@@ -7488,7 +7480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5">
       <c r="A410" s="4">
         <v>400</v>
       </c>
@@ -7502,7 +7494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5">
       <c r="A411" s="4">
         <v>401</v>
       </c>
@@ -7516,7 +7508,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5">
       <c r="A412" s="4">
         <v>402</v>
       </c>
@@ -7533,7 +7525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5">
       <c r="A413" s="4">
         <v>403</v>
       </c>
@@ -7550,7 +7542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5">
       <c r="A414" s="4">
         <v>404</v>
       </c>
@@ -7564,7 +7556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5">
       <c r="A415" s="4">
         <v>405</v>
       </c>
@@ -7578,7 +7570,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5">
       <c r="A416" s="4">
         <v>406</v>
       </c>
@@ -7592,7 +7584,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5">
       <c r="A417" s="4">
         <v>407</v>
       </c>
@@ -7606,7 +7598,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5">
       <c r="A418" s="4">
         <v>408</v>
       </c>
@@ -7620,7 +7612,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5">
       <c r="A419" s="4">
         <v>409</v>
       </c>
@@ -7634,7 +7626,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5">
       <c r="A420" s="4">
         <v>410</v>
       </c>
@@ -7648,7 +7640,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5">
       <c r="A421" s="4">
         <v>411</v>
       </c>
@@ -7662,7 +7654,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5">
       <c r="A422" s="4">
         <v>412</v>
       </c>
@@ -7676,7 +7668,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5">
       <c r="A423" s="4">
         <v>413</v>
       </c>
@@ -7690,7 +7682,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5">
       <c r="A424" s="4">
         <v>414</v>
       </c>
@@ -7704,7 +7696,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5">
       <c r="A425" s="4">
         <v>415</v>
       </c>
@@ -7718,7 +7710,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5">
       <c r="A426" s="4">
         <v>416</v>
       </c>
@@ -7732,7 +7724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5">
       <c r="A427" s="4">
         <v>417</v>
       </c>
@@ -7746,7 +7738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5">
       <c r="A428" s="4">
         <v>418</v>
       </c>
@@ -7760,7 +7752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5">
       <c r="A429" s="4">
         <v>419</v>
       </c>
@@ -7777,7 +7769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5">
       <c r="A430" s="4">
         <v>420</v>
       </c>
@@ -7791,7 +7783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5">
       <c r="A431" s="4">
         <v>421</v>
       </c>
@@ -7805,7 +7797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5">
       <c r="A432" s="4">
         <v>422</v>
       </c>
@@ -7819,7 +7811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5">
       <c r="A433" s="4">
         <v>423</v>
       </c>
@@ -7833,7 +7825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5">
       <c r="A434" s="4">
         <v>424</v>
       </c>
@@ -7847,7 +7839,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5">
       <c r="A435" s="4">
         <v>425</v>
       </c>
@@ -7861,7 +7853,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5">
       <c r="A436" s="4">
         <v>426</v>
       </c>
@@ -7878,7 +7870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5">
       <c r="A437" s="4">
         <v>427</v>
       </c>
@@ -7892,7 +7884,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5">
       <c r="A438" s="4">
         <v>428</v>
       </c>
@@ -7906,7 +7898,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5">
       <c r="A439" s="4">
         <v>429</v>
       </c>
@@ -7920,7 +7912,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5">
       <c r="A440" s="4">
         <v>430</v>
       </c>
@@ -7937,7 +7929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5">
       <c r="A441" s="4">
         <v>431</v>
       </c>
@@ -7951,7 +7943,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5">
       <c r="A442" s="4">
         <v>432</v>
       </c>
@@ -7965,7 +7957,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5">
       <c r="A443" s="4">
         <v>433</v>
       </c>
@@ -7982,7 +7974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5">
       <c r="A444" s="4">
         <v>434</v>
       </c>
@@ -7996,7 +7988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5">
       <c r="A445" s="4">
         <v>435</v>
       </c>
@@ -8013,7 +8005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5">
       <c r="A446" s="4">
         <v>436</v>
       </c>
@@ -8027,7 +8019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5">
       <c r="A447" s="4">
         <v>437</v>
       </c>
@@ -8044,7 +8036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5">
       <c r="A448" s="4">
         <v>438</v>
       </c>
@@ -8061,7 +8053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4">
       <c r="A449" s="4">
         <v>439</v>
       </c>
@@ -8075,7 +8067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4">
       <c r="A450" s="4">
         <v>440</v>
       </c>
@@ -8089,7 +8081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4">
       <c r="A451" s="4">
         <v>441</v>
       </c>
@@ -8103,7 +8095,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4">
       <c r="A452" s="4">
         <v>442</v>
       </c>
@@ -8117,7 +8109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4">
       <c r="A453" s="4">
         <v>443</v>
       </c>
@@ -8131,7 +8123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4">
       <c r="A454" s="4">
         <v>444</v>
       </c>
@@ -8145,7 +8137,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4">
       <c r="A455" s="4">
         <v>445</v>
       </c>
@@ -8159,7 +8151,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4">
       <c r="A456" s="4">
         <v>446</v>
       </c>
@@ -8173,7 +8165,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4">
       <c r="A457" s="4">
         <v>447</v>
       </c>
@@ -8187,7 +8179,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4">
       <c r="A458" s="4">
         <v>448</v>
       </c>
@@ -8201,7 +8193,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4">
       <c r="A459" s="4">
         <v>449</v>
       </c>
@@ -8215,7 +8207,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4">
       <c r="A460" s="4">
         <v>450</v>
       </c>
@@ -8229,7 +8221,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4">
       <c r="A461" s="4">
         <v>451</v>
       </c>
@@ -8243,7 +8235,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4">
       <c r="A462" s="4">
         <v>452</v>
       </c>
@@ -8257,7 +8249,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4">
       <c r="A463" s="4">
         <v>453</v>
       </c>
@@ -8271,7 +8263,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4">
       <c r="A464" s="4">
         <v>454</v>
       </c>
@@ -8285,7 +8277,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5">
       <c r="A465" s="4">
         <v>455</v>
       </c>
@@ -8299,7 +8291,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5">
       <c r="A466" s="4">
         <v>456</v>
       </c>
@@ -8313,7 +8305,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5">
       <c r="A467" s="4">
         <v>457</v>
       </c>
@@ -8327,7 +8319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5">
       <c r="A468" s="4">
         <v>458</v>
       </c>
@@ -8341,7 +8333,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5">
       <c r="A469" s="4">
         <v>459</v>
       </c>
@@ -8355,7 +8347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5">
       <c r="A470" s="4">
         <v>460</v>
       </c>
@@ -8369,7 +8361,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5">
       <c r="A471" s="4">
         <v>461</v>
       </c>
@@ -8383,7 +8375,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5">
       <c r="A472" s="4">
         <v>462</v>
       </c>
@@ -8397,7 +8389,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5">
       <c r="A473" s="4">
         <v>463</v>
       </c>
@@ -8411,7 +8403,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5">
       <c r="A474" s="4">
         <v>464</v>
       </c>
@@ -8425,7 +8417,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5">
       <c r="A475" s="4">
         <v>465</v>
       </c>
@@ -8442,7 +8434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5">
       <c r="A476" s="4">
         <v>466</v>
       </c>
@@ -8456,7 +8448,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5">
       <c r="A477" s="4">
         <v>467</v>
       </c>
@@ -8470,7 +8462,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5">
       <c r="A478" s="4">
         <v>468</v>
       </c>
@@ -8484,7 +8476,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5">
       <c r="A479" s="4">
         <v>469</v>
       </c>
@@ -8498,7 +8490,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5">
       <c r="A480" s="4">
         <v>470</v>
       </c>
@@ -8512,7 +8504,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5">
       <c r="A481" s="4">
         <v>471</v>
       </c>
@@ -8526,7 +8518,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5">
       <c r="A482" s="4">
         <v>472</v>
       </c>
@@ -8540,7 +8532,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5">
       <c r="A483" s="4">
         <v>473</v>
       </c>
@@ -8554,7 +8546,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5">
       <c r="A484" s="4">
         <v>474</v>
       </c>
@@ -8568,7 +8560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5">
       <c r="A485" s="4">
         <v>475</v>
       </c>
@@ -8582,7 +8574,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5">
       <c r="A486" s="4">
         <v>476</v>
       </c>
@@ -8596,7 +8588,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5">
       <c r="A487" s="4">
         <v>477</v>
       </c>
@@ -8610,7 +8602,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5">
       <c r="A488" s="4">
         <v>478</v>
       </c>
@@ -8624,7 +8616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5">
       <c r="A489" s="4">
         <v>479</v>
       </c>
@@ -8638,7 +8630,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5">
       <c r="A490" s="4">
         <v>480</v>
       </c>
@@ -8655,7 +8647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5">
       <c r="A491" s="4">
         <v>481</v>
       </c>
@@ -8669,7 +8661,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5">
       <c r="A492" s="4">
         <v>482</v>
       </c>
@@ -8683,7 +8675,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5">
       <c r="A493" s="4">
         <v>483</v>
       </c>
@@ -8697,7 +8689,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5">
       <c r="A494" s="4">
         <v>484</v>
       </c>
@@ -8711,7 +8703,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5">
       <c r="A495" s="4">
         <v>485</v>
       </c>
@@ -8725,7 +8717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5">
       <c r="A496" s="4">
         <v>486</v>
       </c>
@@ -8739,7 +8731,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4">
       <c r="A497" s="4">
         <v>487</v>
       </c>
@@ -8753,7 +8745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4">
       <c r="A498" s="4">
         <v>488</v>
       </c>
@@ -8767,7 +8759,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4">
       <c r="A499" s="4">
         <v>489</v>
       </c>
@@ -8781,7 +8773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4">
       <c r="A500" s="4">
         <v>490</v>
       </c>
@@ -8795,7 +8787,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4">
       <c r="A501" s="4">
         <v>491</v>
       </c>
@@ -8809,7 +8801,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4">
       <c r="A502" s="4">
         <v>492</v>
       </c>
@@ -8823,7 +8815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4">
       <c r="A503" s="4">
         <v>493</v>
       </c>
@@ -8837,7 +8829,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4">
       <c r="A504" s="4">
         <v>494</v>
       </c>
@@ -8851,7 +8843,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4">
       <c r="A505" s="4">
         <v>495</v>
       </c>
@@ -8865,7 +8857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4">
       <c r="A506" s="4">
         <v>496</v>
       </c>
@@ -8879,7 +8871,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4">
       <c r="A507" s="4">
         <v>497</v>
       </c>
@@ -8893,7 +8885,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4">
       <c r="A508" s="4">
         <v>498</v>
       </c>
@@ -8907,7 +8899,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4">
       <c r="A509" s="4">
         <v>499</v>
       </c>
@@ -8921,7 +8913,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4">
       <c r="A510" s="4">
         <v>500</v>
       </c>
@@ -8935,7 +8927,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4">
       <c r="A511" s="4">
         <v>501</v>
       </c>
@@ -8949,7 +8941,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4">
       <c r="A512" s="4">
         <v>502</v>
       </c>
@@ -8963,7 +8955,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4">
       <c r="A513" s="4">
         <v>503</v>
       </c>
@@ -8977,7 +8969,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4">
       <c r="A514" s="4">
         <v>504</v>
       </c>
@@ -8991,7 +8983,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4">
       <c r="A515" s="4">
         <v>505</v>
       </c>
@@ -9005,7 +8997,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4">
       <c r="A516" s="4">
         <v>506</v>
       </c>
@@ -9019,7 +9011,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4">
       <c r="A517" s="4">
         <v>507</v>
       </c>
@@ -9033,7 +9025,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4">
       <c r="A518" s="4">
         <v>508</v>
       </c>
@@ -9047,7 +9039,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4">
       <c r="A519" s="4">
         <v>509</v>
       </c>
@@ -9061,7 +9053,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4">
       <c r="A520" s="4">
         <v>510</v>
       </c>
@@ -9075,7 +9067,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4">
       <c r="A521" s="4">
         <v>511</v>
       </c>
@@ -9089,7 +9081,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4">
       <c r="A522" s="4">
         <v>512</v>
       </c>
@@ -9103,7 +9095,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4">
       <c r="A523" s="4">
         <v>513</v>
       </c>
@@ -9117,7 +9109,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4">
       <c r="A524" s="4">
         <v>514</v>
       </c>
@@ -9131,7 +9123,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4">
       <c r="A525" s="4">
         <v>515</v>
       </c>
@@ -9145,7 +9137,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4">
       <c r="A526" s="4">
         <v>516</v>
       </c>
@@ -9159,7 +9151,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4">
       <c r="A527" s="4">
         <v>517</v>
       </c>
@@ -9173,7 +9165,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4">
       <c r="A528" s="4">
         <v>518</v>
       </c>
@@ -9187,7 +9179,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5">
       <c r="A529" s="4">
         <v>519</v>
       </c>
@@ -9201,7 +9193,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5">
       <c r="A530" s="4">
         <v>520</v>
       </c>
@@ -9215,7 +9207,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5">
       <c r="A531" s="4">
         <v>521</v>
       </c>
@@ -9229,7 +9221,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5">
       <c r="A532" s="4">
         <v>522</v>
       </c>
@@ -9243,7 +9235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5">
       <c r="A533" s="4">
         <v>523</v>
       </c>
@@ -9257,7 +9249,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5">
       <c r="A534" s="4">
         <v>524</v>
       </c>
@@ -9271,7 +9263,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5">
       <c r="A535" s="4">
         <v>525</v>
       </c>
@@ -9285,7 +9277,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5">
       <c r="A536" s="4">
         <v>526</v>
       </c>
@@ -9299,7 +9291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5">
       <c r="A537" s="4">
         <v>527</v>
       </c>
@@ -9313,7 +9305,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5">
       <c r="A538" s="4">
         <v>528</v>
       </c>
@@ -9327,7 +9319,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5">
       <c r="A539" s="4">
         <v>529</v>
       </c>
@@ -9344,7 +9336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5">
       <c r="A540" s="4">
         <v>530</v>
       </c>
@@ -9358,7 +9350,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5">
       <c r="A541" s="4">
         <v>531</v>
       </c>
@@ -9372,7 +9364,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5">
       <c r="A542" s="4">
         <v>532</v>
       </c>
@@ -9386,7 +9378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5">
       <c r="A543" s="4">
         <v>533</v>
       </c>
@@ -9400,7 +9392,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5">
       <c r="A544" s="4">
         <v>534</v>
       </c>
@@ -9414,7 +9406,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5">
       <c r="A545" s="4">
         <v>535</v>
       </c>
@@ -9428,7 +9420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5">
       <c r="A546" s="4">
         <v>536</v>
       </c>
@@ -9442,7 +9434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5">
       <c r="A547" s="4">
         <v>537</v>
       </c>
@@ -9456,7 +9448,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5">
       <c r="A548" s="4">
         <v>538</v>
       </c>
@@ -9470,7 +9462,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5">
       <c r="A549" s="4">
         <v>539</v>
       </c>
@@ -9484,7 +9476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5">
       <c r="A550" s="4">
         <v>540</v>
       </c>
@@ -9498,7 +9490,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5">
       <c r="A551" s="4">
         <v>541</v>
       </c>
@@ -9512,7 +9504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5">
       <c r="A552" s="4">
         <v>542</v>
       </c>
@@ -9526,7 +9518,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5">
       <c r="A553" s="4">
         <v>543</v>
       </c>
@@ -9540,7 +9532,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5">
       <c r="A554" s="4">
         <v>544</v>
       </c>
@@ -9554,7 +9546,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5">
       <c r="A555" s="4">
         <v>545</v>
       </c>
@@ -9568,7 +9560,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5">
       <c r="A556" s="4">
         <v>546</v>
       </c>
@@ -9585,7 +9577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5">
       <c r="A557" s="4">
         <v>547</v>
       </c>
@@ -9599,7 +9591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5">
       <c r="A558" s="4">
         <v>548</v>
       </c>
@@ -9613,7 +9605,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5">
       <c r="A559" s="4">
         <v>549</v>
       </c>
@@ -9627,7 +9619,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5">
       <c r="A560" s="4">
         <v>550</v>
       </c>
@@ -9641,7 +9633,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5">
       <c r="A561" s="4">
         <v>551</v>
       </c>
@@ -9655,7 +9647,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5">
       <c r="A562" s="4">
         <v>552</v>
       </c>
@@ -9669,7 +9661,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5">
       <c r="A563" s="4">
         <v>553</v>
       </c>
@@ -9683,7 +9675,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5">
       <c r="A564" s="4">
         <v>554</v>
       </c>
@@ -9697,7 +9689,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5">
       <c r="A565" s="4">
         <v>555</v>
       </c>
@@ -9711,7 +9703,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5">
       <c r="A566" s="4">
         <v>556</v>
       </c>
@@ -9725,7 +9717,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5">
       <c r="A567" s="4">
         <v>557</v>
       </c>
@@ -9742,7 +9734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5">
       <c r="A568" s="4">
         <v>558</v>
       </c>
@@ -9756,7 +9748,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5">
       <c r="A569" s="4">
         <v>559</v>
       </c>
@@ -9773,7 +9765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5">
       <c r="A570" s="4">
         <v>560</v>
       </c>
@@ -9787,7 +9779,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5">
       <c r="A571" s="4">
         <v>561</v>
       </c>
@@ -9801,7 +9793,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5">
       <c r="A572" s="4">
         <v>562</v>
       </c>
@@ -9815,7 +9807,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5">
       <c r="A573" s="4">
         <v>563</v>
       </c>
@@ -9829,7 +9821,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5">
       <c r="A574" s="4">
         <v>564</v>
       </c>
@@ -9843,7 +9835,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5">
       <c r="A575" s="4">
         <v>565</v>
       </c>
@@ -9857,7 +9849,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5">
       <c r="A576" s="4">
         <v>566</v>
       </c>
@@ -9871,7 +9863,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4">
       <c r="A577" s="4">
         <v>567</v>
       </c>
@@ -9885,7 +9877,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4">
       <c r="A578" s="4">
         <v>568</v>
       </c>
@@ -9899,7 +9891,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4">
       <c r="A579" s="4">
         <v>569</v>
       </c>
@@ -9913,7 +9905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4">
       <c r="A580" s="4">
         <v>570</v>
       </c>
@@ -9927,7 +9919,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4">
       <c r="A581" s="4">
         <v>571</v>
       </c>
@@ -9941,7 +9933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4">
       <c r="A582" s="4">
         <v>572</v>
       </c>
@@ -9955,7 +9947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:4">
       <c r="A583" s="4">
         <v>573</v>
       </c>
@@ -9969,7 +9961,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4">
       <c r="A584" s="4">
         <v>574</v>
       </c>
@@ -9983,7 +9975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4">
       <c r="A585" s="4">
         <v>575</v>
       </c>
@@ -9997,7 +9989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4">
       <c r="A586" s="4">
         <v>576</v>
       </c>
@@ -10011,7 +10003,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4">
       <c r="A587" s="4">
         <v>577</v>
       </c>
@@ -10025,7 +10017,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4">
       <c r="A588" s="4">
         <v>578</v>
       </c>
@@ -10039,7 +10031,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4">
       <c r="A589" s="4">
         <v>579</v>
       </c>
@@ -10053,7 +10045,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4">
       <c r="A590" s="4">
         <v>580</v>
       </c>
@@ -10067,7 +10059,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4">
       <c r="A591" s="4">
         <v>581</v>
       </c>
@@ -10081,7 +10073,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4">
       <c r="A592" s="4">
         <v>582</v>
       </c>
@@ -10095,7 +10087,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4">
       <c r="A593" s="4">
         <v>583</v>
       </c>
@@ -10109,7 +10101,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4">
       <c r="A594" s="4">
         <v>584</v>
       </c>
@@ -10123,7 +10115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4">
       <c r="A595" s="4">
         <v>585</v>
       </c>
@@ -10137,7 +10129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:4">
       <c r="A596" s="4">
         <v>586</v>
       </c>
@@ -10151,7 +10143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4">
       <c r="A597" s="4">
         <v>587</v>
       </c>
@@ -10165,7 +10157,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4">
       <c r="A598" s="4">
         <v>588</v>
       </c>
@@ -10179,7 +10171,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4">
       <c r="A599" s="4">
         <v>589</v>
       </c>
@@ -10193,7 +10185,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4">
       <c r="A600" s="4">
         <v>590</v>
       </c>
@@ -10207,7 +10199,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4">
       <c r="A601" s="4">
         <v>591</v>
       </c>
@@ -10221,7 +10213,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4">
       <c r="A602" s="4">
         <v>592</v>
       </c>
@@ -10235,7 +10227,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4">
       <c r="A603" s="4">
         <v>593</v>
       </c>
@@ -10249,7 +10241,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4">
       <c r="A604" s="4">
         <v>594</v>
       </c>
@@ -10263,7 +10255,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4">
       <c r="A605" s="4">
         <v>595</v>
       </c>
@@ -10277,7 +10269,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4">
       <c r="A606" s="4">
         <v>596</v>
       </c>
@@ -10291,7 +10283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4">
       <c r="A607" s="4">
         <v>597</v>
       </c>
@@ -10305,7 +10297,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4">
       <c r="A608" s="4">
         <v>598</v>
       </c>
@@ -10320,7 +10312,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="58">
     <mergeCell ref="G53:I53"/>
     <mergeCell ref="G54:I54"/>
     <mergeCell ref="G55:I55"/>
@@ -10349,10 +10341,6 @@
     <mergeCell ref="G37:I37"/>
     <mergeCell ref="G38:I38"/>
     <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G18:I18"/>
@@ -10365,14 +10353,6 @@
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="G27:I27"/>
-    <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="O41:Q41"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -10381,32 +10361,56 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="O41:Q41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>